--- a/SE-P-12-项目时间安排甘特图（0531）/GPA皇榜项目甘特图.xlsx
+++ b/SE-P-12-项目时间安排甘特图（0531）/GPA皇榜项目甘特图.xlsx
@@ -33,7 +33,7 @@
     <t>任务难度等级（0%-100%）</t>
   </si>
   <si>
-    <t>编织预算等级（1-10）</t>
+    <t>编制预算等级（1-10）</t>
   </si>
   <si>
     <t>工作主要负责人</t>
@@ -263,11 +263,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -313,36 +313,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -350,23 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +336,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,33 +410,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,8 +426,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,13 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,43 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,25 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,19 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,6 +634,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,17 +1365,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,26 +1409,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1434,6 +1419,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1455,10 +1455,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1467,10 +1467,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1479,24 +1479,24 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1506,91 +1506,91 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2282,7 +2282,7 @@
   <dimension ref="A1:CE46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
